--- a/metadata/excel/projects/envonautics/test_proj/metadata.xlsx
+++ b/metadata/excel/projects/envonautics/test_proj/metadata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sinclair/repos/sifes/metadata/excel/projects/micans_v6_exp1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sinclair/repos/sifes/metadata/excel/projects/envonautics/test_proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1465,10 +1465,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="288">
     <cellStyle name="Excel Built-in Normal" xfId="267"/>
@@ -2154,7 +2154,7 @@
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="114" zoomScaleNormal="114" zoomScalePageLayoutView="114" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2291,24 +2291,24 @@
       <c r="BB1" s="5"/>
       <c r="BC1" s="5"/>
       <c r="BD1" s="12"/>
-      <c r="BF1" s="65" t="s">
+      <c r="BF1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="65"/>
-      <c r="BK1" s="65" t="s">
+      <c r="BG1" s="66"/>
+      <c r="BH1" s="66"/>
+      <c r="BI1" s="66"/>
+      <c r="BK1" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="65"/>
-      <c r="BR1" s="65" t="s">
+      <c r="BL1" s="66"/>
+      <c r="BM1" s="66"/>
+      <c r="BN1" s="66"/>
+      <c r="BO1" s="66"/>
+      <c r="BP1" s="66"/>
+      <c r="BR1" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" s="65"/>
+      <c r="BS1" s="66"/>
       <c r="BU1" s="10" t="s">
         <v>72</v>
       </c>
@@ -6193,7 +6193,7 @@
       <c r="L28" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="N28" s="66" t="s">
+      <c r="N28" s="65" t="s">
         <v>212</v>
       </c>
       <c r="O28" s="39" t="s">
@@ -7330,9 +7330,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -7350,24 +7360,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/envonautics/test_proj/metadata.xlsx
+++ b/metadata/excel/projects/envonautics/test_proj/metadata.xlsx
@@ -1807,10 +1807,10 @@
   </sheetPr>
   <dimension ref="A1:BY65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="114" zoomScaleNormal="114" zoomScalePageLayoutView="114" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="114" zoomScaleNormal="114" zoomScalePageLayoutView="114" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="AV17" sqref="AV17"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
